--- a/responses/template_response.xlsx
+++ b/responses/template_response.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\laure\Documents\Git-repositories\alpha-fabric-client\responses\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D4D74FE-B99D-4FA7-8A60-16E1B593C2D9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{97C82639-B028-4CD9-AD45-C166B21A8846}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Response measures" sheetId="1" r:id="rId1"/>
+    <sheet name="Responses" sheetId="1" r:id="rId1"/>
+    <sheet name="Metrics" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="23">
   <si>
     <t>Key</t>
   </si>
@@ -28,40 +39,67 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Start C</t>
+    <t>Total B</t>
   </si>
   <si>
-    <t>Start A</t>
+    <t>Total C</t>
   </si>
   <si>
-    <t>End A</t>
+    <t>Total D</t>
   </si>
   <si>
-    <t>Start B</t>
+    <t>Total Transaction</t>
   </si>
   <si>
-    <t>End B</t>
+    <t>Valid</t>
   </si>
   <si>
-    <t>End C</t>
+    <t>StartTransaction</t>
   </si>
   <si>
-    <t>Start D</t>
+    <t>StepBStart</t>
   </si>
   <si>
-    <t>End D</t>
+    <t>StepBEnd</t>
   </si>
   <si>
-    <t>Start E</t>
+    <t>StepCStart</t>
   </si>
   <si>
-    <t>End E</t>
+    <t>StepCEnd</t>
   </si>
   <si>
-    <t>Start F</t>
+    <t>StepDStart</t>
   </si>
   <si>
-    <t>End F</t>
+    <t>StepDEnd</t>
+  </si>
+  <si>
+    <t>FromStartToBStart</t>
+  </si>
+  <si>
+    <t>FromDEndToEnd</t>
+  </si>
+  <si>
+    <t>Situation</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>FORMULA_RECORD</t>
+  </si>
+  <si>
+    <t>EndTransaction</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>StartStepGet</t>
+  </si>
+  <si>
+    <t>EndStepGet</t>
   </si>
 </sst>
 </file>
@@ -114,9 +152,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -132,6 +173,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Responses"/>
+      <sheetName val="Metrics"/>
+      <sheetName val="Response measures"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>FORMULA_RECORD</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Time</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,56 +501,5531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:Z3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="10" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="14.109375" customWidth="1"/>
+    <col min="13" max="15" width="14.109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.33203125" customWidth="1" collapsed="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="R3" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47B49F5C-A672-40FE-B906-CC180A3080E5}">
+  <dimension ref="A1:M100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="9" width="6.77734375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="6.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="str">
+        <f>[1]Responses!A1</f>
+        <v>Time</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>[1]Responses!B1</f>
+        <v>Situation</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>[1]Responses!C1</f>
+        <v>Method</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>[1]Responses!D1</f>
+        <v>Key</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>[1]Responses!E1</f>
+        <v>Value</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>Responses!A2</f>
+        <v>FORMULA_RECORD</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Responses!B2</f>
+        <v>FORMULA_RECORD</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Responses!C2</f>
+        <v>FORMULA_RECORD</v>
+      </c>
+      <c r="D2" t="str">
+        <f>Responses!D2</f>
+        <v>FORMULA_RECORD</v>
+      </c>
+      <c r="E2" t="str">
+        <f>Responses!E2</f>
+        <v>FORMULA_RECORD</v>
+      </c>
+      <c r="F2">
+        <f>Responses!G2-Responses!F2</f>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f>Responses!H2-Responses!F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f>Responses!I2-Responses!H2</f>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f>Responses!M2-Responses!J2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>Responses!O2-Responses!N2</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>Responses!O2-Responses!G2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <f>SUM(H2:L2)=F2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>Responses!A3</f>
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <f>Responses!B3</f>
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>Responses!C3</f>
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <f>Responses!D3</f>
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <f>Responses!E3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f>Responses!G3-Responses!F3</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>Responses!H3-Responses!F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <f>Responses!I3-Responses!H3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>Responses!M3-Responses!J3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <f>Responses!O3-Responses!N3</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>Responses!O3-Responses!G3</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>(G3-K3)+SUM(H3:J3)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" t="b">
+        <f t="shared" ref="M3:M66" si="0">SUM(H3:L3)=F3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>Responses!A4</f>
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <f>Responses!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <f>Responses!C4</f>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f>Responses!D4</f>
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <f>Responses!E4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <f>Responses!G4-Responses!F4</f>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f>Responses!H4-Responses!F4</f>
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <f>Responses!I4-Responses!H4</f>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f>Responses!M4-Responses!J4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <f>Responses!O4-Responses!N4</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>Responses!O4-Responses!G4</f>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>(G4-K4)+SUM(H4:J4)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>Responses!A5</f>
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <f>Responses!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <f>Responses!C5</f>
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>Responses!D5</f>
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <f>Responses!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f>Responses!G5-Responses!F5</f>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f>Responses!H5-Responses!F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <f>Responses!I5-Responses!H5</f>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f>Responses!M5-Responses!J5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f>Responses!O5-Responses!N5</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f>Responses!O5-Responses!G5</f>
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f>(G5-K5)+SUM(H5:J5)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>Responses!A6</f>
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <f>Responses!B6</f>
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <f>Responses!C6</f>
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <f>Responses!D6</f>
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <f>Responses!E6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <f>Responses!G6-Responses!F6</f>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f>Responses!H6-Responses!F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <f>Responses!I6-Responses!H6</f>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f>Responses!M6-Responses!J6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f>Responses!O6-Responses!N6</f>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f>Responses!O6-Responses!G6</f>
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f>(G6-K6)+SUM(H6:J6)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>Responses!A7</f>
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <f>Responses!B7</f>
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <f>Responses!C7</f>
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <f>Responses!D7</f>
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <f>Responses!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f>Responses!G7-Responses!F7</f>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f>Responses!H7-Responses!F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <f>Responses!I7-Responses!H7</f>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f>Responses!M7-Responses!J7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f>Responses!O7-Responses!N7</f>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f>Responses!O7-Responses!G7</f>
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ref="L7:L70" si="1">(G7-K7)+SUM(H7:J7)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>Responses!A8</f>
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <f>Responses!B8</f>
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <f>Responses!C8</f>
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <f>Responses!D8</f>
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <f>Responses!E8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <f>Responses!G8-Responses!F8</f>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f>Responses!H8-Responses!F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <f>Responses!I8-Responses!H8</f>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f>Responses!M8-Responses!J8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>Responses!O8-Responses!N8</f>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f>Responses!O8-Responses!G8</f>
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>Responses!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <f>Responses!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f>Responses!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <f>Responses!D9</f>
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <f>Responses!E9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <f>Responses!G9-Responses!F9</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>Responses!H9-Responses!F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <f>Responses!I9-Responses!H9</f>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f>Responses!M9-Responses!J9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f>Responses!O9-Responses!N9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>Responses!O9-Responses!G9</f>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>Responses!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <f>Responses!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <f>Responses!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <f>Responses!D10</f>
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <f>Responses!E10</f>
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <f>Responses!G10-Responses!F10</f>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f>Responses!H10-Responses!F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <f>Responses!I10-Responses!H10</f>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f>Responses!M10-Responses!J10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f>Responses!O10-Responses!N10</f>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>Responses!O10-Responses!G10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>Responses!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <f>Responses!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>Responses!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f>Responses!D11</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f>Responses!E11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f>Responses!G11-Responses!F11</f>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f>Responses!H11-Responses!F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f>Responses!I11-Responses!H11</f>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f>Responses!M11-Responses!J11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f>Responses!O11-Responses!N11</f>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>Responses!O11-Responses!G11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>Responses!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <f>Responses!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f>Responses!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f>Responses!D12</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f>Responses!E12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f>Responses!G12-Responses!F12</f>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f>Responses!H12-Responses!F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f>Responses!I12-Responses!H12</f>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f>Responses!M12-Responses!J12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f>Responses!O12-Responses!N12</f>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f>Responses!O12-Responses!G12</f>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" ref="L12:L21" si="2">(G12-K12)+SUM(H12:J12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" t="b">
+        <f t="shared" ref="M12:M21" si="3">SUM(H12:L12)=F12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>Responses!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <f>Responses!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f>Responses!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f>Responses!D13</f>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f>Responses!E13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f>Responses!G13-Responses!F13</f>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f>Responses!H13-Responses!F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f>Responses!I13-Responses!H13</f>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f>Responses!M13-Responses!J13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f>Responses!O13-Responses!N13</f>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f>Responses!O13-Responses!G13</f>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M13" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>Responses!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <f>Responses!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f>Responses!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f>Responses!D14</f>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f>Responses!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f>Responses!G14-Responses!F14</f>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f>Responses!H14-Responses!F14</f>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f>Responses!I14-Responses!H14</f>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f>Responses!M14-Responses!J14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f>Responses!O14-Responses!N14</f>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f>Responses!O14-Responses!G14</f>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M14" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>Responses!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <f>Responses!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f>Responses!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f>Responses!D15</f>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f>Responses!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f>Responses!G15-Responses!F15</f>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f>Responses!H15-Responses!F15</f>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f>Responses!I15-Responses!H15</f>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f>Responses!M15-Responses!J15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f>Responses!O15-Responses!N15</f>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f>Responses!O15-Responses!G15</f>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M15" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>Responses!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <f>Responses!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <f>Responses!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <f>Responses!D16</f>
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <f>Responses!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <f>Responses!G16-Responses!F16</f>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f>Responses!H16-Responses!F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <f>Responses!I16-Responses!H16</f>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f>Responses!M16-Responses!J16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f>Responses!O16-Responses!N16</f>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f>Responses!O16-Responses!G16</f>
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M16" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>Responses!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <f>Responses!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>Responses!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f>Responses!D17</f>
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <f>Responses!E17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f>Responses!G17-Responses!F17</f>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>Responses!H17-Responses!F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <f>Responses!I17-Responses!H17</f>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f>Responses!M17-Responses!J17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f>Responses!O17-Responses!N17</f>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f>Responses!O17-Responses!G17</f>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M17" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>Responses!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <f>Responses!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <f>Responses!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <f>Responses!D18</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <f>Responses!E18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f>Responses!G18-Responses!F18</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>Responses!H18-Responses!F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <f>Responses!I18-Responses!H18</f>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f>Responses!M18-Responses!J18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f>Responses!O18-Responses!N18</f>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f>Responses!O18-Responses!G18</f>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M18" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>Responses!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <f>Responses!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <f>Responses!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <f>Responses!D19</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <f>Responses!E19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f>Responses!G19-Responses!F19</f>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f>Responses!H19-Responses!F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <f>Responses!I19-Responses!H19</f>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f>Responses!M19-Responses!J19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f>Responses!O19-Responses!N19</f>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f>Responses!O19-Responses!G19</f>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M19" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>Responses!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <f>Responses!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <f>Responses!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <f>Responses!D20</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <f>Responses!E20</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <f>Responses!G20-Responses!F20</f>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f>Responses!H20-Responses!F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <f>Responses!I20-Responses!H20</f>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f>Responses!M20-Responses!J20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f>Responses!O20-Responses!N20</f>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f>Responses!O20-Responses!G20</f>
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M20" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>Responses!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <f>Responses!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <f>Responses!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <f>Responses!D21</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <f>Responses!E21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <f>Responses!G21-Responses!F21</f>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f>Responses!H21-Responses!F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <f>Responses!I21-Responses!H21</f>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f>Responses!M21-Responses!J21</f>
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f>Responses!O21-Responses!N21</f>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f>Responses!O21-Responses!G21</f>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>Responses!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <f>Responses!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <f>Responses!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <f>Responses!D22</f>
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <f>Responses!E22</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f>Responses!G22-Responses!F22</f>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f>Responses!H22-Responses!F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <f>Responses!I22-Responses!H22</f>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f>Responses!M22-Responses!J22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f>Responses!O22-Responses!N22</f>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f>Responses!O22-Responses!G22</f>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>Responses!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <f>Responses!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <f>Responses!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <f>Responses!D23</f>
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <f>Responses!E23</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <f>Responses!G23-Responses!F23</f>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f>Responses!H23-Responses!F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <f>Responses!I23-Responses!H23</f>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f>Responses!M23-Responses!J23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f>Responses!O23-Responses!N23</f>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f>Responses!O23-Responses!G23</f>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>Responses!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <f>Responses!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <f>Responses!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <f>Responses!D24</f>
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <f>Responses!E24</f>
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <f>Responses!G24-Responses!F24</f>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f>Responses!H24-Responses!F24</f>
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <f>Responses!I24-Responses!H24</f>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f>Responses!M24-Responses!J24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f>Responses!O24-Responses!N24</f>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f>Responses!O24-Responses!G24</f>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>Responses!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <f>Responses!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <f>Responses!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <f>Responses!D25</f>
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <f>Responses!E25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <f>Responses!G25-Responses!F25</f>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f>Responses!H25-Responses!F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <f>Responses!I25-Responses!H25</f>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f>Responses!M25-Responses!J25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f>Responses!O25-Responses!N25</f>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f>Responses!O25-Responses!G25</f>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>Responses!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <f>Responses!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <f>Responses!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <f>Responses!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <f>Responses!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <f>Responses!G26-Responses!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <f>Responses!H26-Responses!F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <f>Responses!I26-Responses!H26</f>
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <f>Responses!M26-Responses!J26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f>Responses!O26-Responses!N26</f>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f>Responses!O26-Responses!G26</f>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>Responses!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <f>Responses!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <f>Responses!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <f>Responses!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <f>Responses!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <f>Responses!G27-Responses!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <f>Responses!H27-Responses!F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <f>Responses!I27-Responses!H27</f>
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <f>Responses!M27-Responses!J27</f>
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f>Responses!O27-Responses!N27</f>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f>Responses!O27-Responses!G27</f>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>Responses!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <f>Responses!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <f>Responses!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <f>Responses!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <f>Responses!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <f>Responses!G28-Responses!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <f>Responses!H28-Responses!F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <f>Responses!I28-Responses!H28</f>
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <f>Responses!M28-Responses!J28</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f>Responses!O28-Responses!N28</f>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f>Responses!O28-Responses!G28</f>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>Responses!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <f>Responses!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>Responses!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f>Responses!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f>Responses!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f>Responses!G29-Responses!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f>Responses!H29-Responses!F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <f>Responses!I29-Responses!H29</f>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f>Responses!M29-Responses!J29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f>Responses!O29-Responses!N29</f>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f>Responses!O29-Responses!G29</f>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>Responses!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <f>Responses!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <f>Responses!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <f>Responses!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <f>Responses!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <f>Responses!G30-Responses!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <f>Responses!H30-Responses!F30</f>
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <f>Responses!I30-Responses!H30</f>
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <f>Responses!M30-Responses!J30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <f>Responses!O30-Responses!N30</f>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f>Responses!O30-Responses!G30</f>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f>Responses!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <f>Responses!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <f>Responses!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <f>Responses!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <f>Responses!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <f>Responses!G31-Responses!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <f>Responses!H31-Responses!F31</f>
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <f>Responses!I31-Responses!H31</f>
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <f>Responses!M31-Responses!J31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <f>Responses!O31-Responses!N31</f>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f>Responses!O31-Responses!G31</f>
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>Responses!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <f>Responses!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <f>Responses!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <f>Responses!D32</f>
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <f>Responses!E32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <f>Responses!G32-Responses!F32</f>
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <f>Responses!H32-Responses!F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <f>Responses!I32-Responses!H32</f>
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <f>Responses!M32-Responses!J32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f>Responses!O32-Responses!N32</f>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f>Responses!O32-Responses!G32</f>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M32" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>Responses!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <f>Responses!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <f>Responses!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>Responses!D33</f>
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <f>Responses!E33</f>
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <f>Responses!G33-Responses!F33</f>
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <f>Responses!H33-Responses!F33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <f>Responses!I33-Responses!H33</f>
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <f>Responses!M33-Responses!J33</f>
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <f>Responses!O33-Responses!N33</f>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f>Responses!O33-Responses!G33</f>
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f>Responses!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <f>Responses!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <f>Responses!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <f>Responses!D34</f>
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <f>Responses!E34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <f>Responses!G34-Responses!F34</f>
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <f>Responses!H34-Responses!F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <f>Responses!I34-Responses!H34</f>
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <f>Responses!M34-Responses!J34</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <f>Responses!O34-Responses!N34</f>
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <f>Responses!O34-Responses!G34</f>
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f>Responses!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <f>Responses!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <f>Responses!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <f>Responses!D35</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <f>Responses!E35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f>Responses!G35-Responses!F35</f>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f>Responses!H35-Responses!F35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <f>Responses!I35-Responses!H35</f>
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <f>Responses!M35-Responses!J35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f>Responses!O35-Responses!N35</f>
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <f>Responses!O35-Responses!G35</f>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f>Responses!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <f>Responses!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <f>Responses!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <f>Responses!D36</f>
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <f>Responses!E36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <f>Responses!G36-Responses!F36</f>
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <f>Responses!H36-Responses!F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <f>Responses!I36-Responses!H36</f>
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <f>Responses!M36-Responses!J36</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <f>Responses!O36-Responses!N36</f>
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <f>Responses!O36-Responses!G36</f>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f>Responses!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <f>Responses!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <f>Responses!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <f>Responses!D37</f>
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <f>Responses!E37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <f>Responses!G37-Responses!F37</f>
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <f>Responses!H37-Responses!F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <f>Responses!I37-Responses!H37</f>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <f>Responses!M37-Responses!J37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <f>Responses!O37-Responses!N37</f>
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <f>Responses!O37-Responses!G37</f>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f>Responses!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <f>Responses!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <f>Responses!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <f>Responses!D38</f>
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <f>Responses!E38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f>Responses!G38-Responses!F38</f>
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <f>Responses!H38-Responses!F38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <f>Responses!I38-Responses!H38</f>
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <f>Responses!M38-Responses!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <f>Responses!O38-Responses!N38</f>
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <f>Responses!O38-Responses!G38</f>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f>Responses!A39</f>
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>Responses!B39</f>
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <f>Responses!C39</f>
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <f>Responses!D39</f>
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <f>Responses!E39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <f>Responses!G39-Responses!F39</f>
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <f>Responses!H39-Responses!F39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <f>Responses!I39-Responses!H39</f>
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <f>Responses!M39-Responses!J39</f>
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <f>Responses!O39-Responses!N39</f>
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <f>Responses!O39-Responses!G39</f>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M39" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f>Responses!A40</f>
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <f>Responses!B40</f>
+        <v>0</v>
+      </c>
+      <c r="C40">
+        <f>Responses!C40</f>
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <f>Responses!D40</f>
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <f>Responses!E40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <f>Responses!G40-Responses!F40</f>
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <f>Responses!H40-Responses!F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <f>Responses!I40-Responses!H40</f>
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <f>Responses!M40-Responses!J40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <f>Responses!O40-Responses!N40</f>
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <f>Responses!O40-Responses!G40</f>
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f>Responses!A41</f>
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <f>Responses!B41</f>
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <f>Responses!C41</f>
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <f>Responses!D41</f>
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <f>Responses!E41</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>Responses!G41-Responses!F41</f>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f>Responses!H41-Responses!F41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <f>Responses!I41-Responses!H41</f>
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <f>Responses!M41-Responses!J41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f>Responses!O41-Responses!N41</f>
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <f>Responses!O41-Responses!G41</f>
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f>Responses!A42</f>
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <f>Responses!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <f>Responses!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f>Responses!D42</f>
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <f>Responses!E42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <f>Responses!G42-Responses!F42</f>
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <f>Responses!H42-Responses!F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <f>Responses!I42-Responses!H42</f>
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <f>Responses!M42-Responses!J42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <f>Responses!O42-Responses!N42</f>
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <f>Responses!O42-Responses!G42</f>
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f>Responses!A43</f>
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <f>Responses!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <f>Responses!C43</f>
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f>Responses!D43</f>
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <f>Responses!E43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <f>Responses!G43-Responses!F43</f>
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <f>Responses!H43-Responses!F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <f>Responses!I43-Responses!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <f>Responses!M43-Responses!J43</f>
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <f>Responses!O43-Responses!N43</f>
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <f>Responses!O43-Responses!G43</f>
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f>Responses!A44</f>
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <f>Responses!B44</f>
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <f>Responses!C44</f>
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <f>Responses!D44</f>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f>Responses!E44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f>Responses!G44-Responses!F44</f>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f>Responses!H44-Responses!F44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <f>Responses!I44-Responses!H44</f>
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <f>Responses!M44-Responses!J44</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f>Responses!O44-Responses!N44</f>
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <f>Responses!O44-Responses!G44</f>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>Responses!A45</f>
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <f>Responses!B45</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <f>Responses!C45</f>
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>Responses!D45</f>
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <f>Responses!E45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f>Responses!G45-Responses!F45</f>
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <f>Responses!H45-Responses!F45</f>
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <f>Responses!I45-Responses!H45</f>
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <f>Responses!M45-Responses!J45</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <f>Responses!O45-Responses!N45</f>
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <f>Responses!O45-Responses!G45</f>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M45" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f>Responses!A46</f>
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <f>Responses!B46</f>
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <f>Responses!C46</f>
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>Responses!D46</f>
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <f>Responses!E46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <f>Responses!G46-Responses!F46</f>
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <f>Responses!H46-Responses!F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <f>Responses!I46-Responses!H46</f>
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <f>Responses!M46-Responses!J46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <f>Responses!O46-Responses!N46</f>
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <f>Responses!O46-Responses!G46</f>
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f>Responses!A47</f>
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <f>Responses!B47</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>Responses!C47</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f>Responses!D47</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f>Responses!E47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f>Responses!G47-Responses!F47</f>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f>Responses!H47-Responses!F47</f>
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <f>Responses!I47-Responses!H47</f>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f>Responses!M47-Responses!J47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f>Responses!O47-Responses!N47</f>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f>Responses!O47-Responses!G47</f>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M47" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f>Responses!A48</f>
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <f>Responses!B48</f>
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <f>Responses!C48</f>
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f>Responses!D48</f>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f>Responses!E48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f>Responses!G48-Responses!F48</f>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f>Responses!H48-Responses!F48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <f>Responses!I48-Responses!H48</f>
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <f>Responses!M48-Responses!J48</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <f>Responses!O48-Responses!N48</f>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f>Responses!O48-Responses!G48</f>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f>Responses!A49</f>
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <f>Responses!B49</f>
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <f>Responses!C49</f>
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>Responses!D49</f>
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <f>Responses!E49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f>Responses!G49-Responses!F49</f>
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <f>Responses!H49-Responses!F49</f>
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <f>Responses!I49-Responses!H49</f>
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <f>Responses!M49-Responses!J49</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <f>Responses!O49-Responses!N49</f>
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <f>Responses!O49-Responses!G49</f>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>Responses!A50</f>
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <f>Responses!B50</f>
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <f>Responses!C50</f>
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <f>Responses!D50</f>
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <f>Responses!E50</f>
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <f>Responses!G50-Responses!F50</f>
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <f>Responses!H50-Responses!F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <f>Responses!I50-Responses!H50</f>
+        <v>0</v>
+      </c>
+      <c r="I50">
+        <f>Responses!M50-Responses!J50</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <f>Responses!O50-Responses!N50</f>
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <f>Responses!O50-Responses!G50</f>
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M50" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f>Responses!A51</f>
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <f>Responses!B51</f>
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <f>Responses!C51</f>
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <f>Responses!D51</f>
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <f>Responses!E51</f>
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <f>Responses!G51-Responses!F51</f>
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <f>Responses!H51-Responses!F51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <f>Responses!I51-Responses!H51</f>
+        <v>0</v>
+      </c>
+      <c r="I51">
+        <f>Responses!M51-Responses!J51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <f>Responses!O51-Responses!N51</f>
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <f>Responses!O51-Responses!G51</f>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M51" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <f>Responses!A52</f>
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <f>Responses!B52</f>
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <f>Responses!C52</f>
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <f>Responses!D52</f>
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <f>Responses!E52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <f>Responses!G52-Responses!F52</f>
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <f>Responses!H52-Responses!F52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <f>Responses!I52-Responses!H52</f>
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <f>Responses!M52-Responses!J52</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <f>Responses!O52-Responses!N52</f>
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <f>Responses!O52-Responses!G52</f>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <f>Responses!A53</f>
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <f>Responses!B53</f>
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <f>Responses!C53</f>
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <f>Responses!D53</f>
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <f>Responses!E53</f>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f>Responses!G53-Responses!F53</f>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f>Responses!H53-Responses!F53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <f>Responses!I53-Responses!H53</f>
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <f>Responses!M53-Responses!J53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f>Responses!O53-Responses!N53</f>
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <f>Responses!O53-Responses!G53</f>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <f>Responses!A54</f>
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <f>Responses!B54</f>
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <f>Responses!C54</f>
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <f>Responses!D54</f>
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <f>Responses!E54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <f>Responses!G54-Responses!F54</f>
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <f>Responses!H54-Responses!F54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <f>Responses!I54-Responses!H54</f>
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <f>Responses!M54-Responses!J54</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <f>Responses!O54-Responses!N54</f>
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <f>Responses!O54-Responses!G54</f>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M54" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <f>Responses!A55</f>
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <f>Responses!B55</f>
+        <v>0</v>
+      </c>
+      <c r="C55">
+        <f>Responses!C55</f>
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <f>Responses!D55</f>
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <f>Responses!E55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <f>Responses!G55-Responses!F55</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f>Responses!H55-Responses!F55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <f>Responses!I55-Responses!H55</f>
+        <v>0</v>
+      </c>
+      <c r="I55">
+        <f>Responses!M55-Responses!J55</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f>Responses!O55-Responses!N55</f>
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <f>Responses!O55-Responses!G55</f>
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M55" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <f>Responses!A56</f>
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <f>Responses!B56</f>
+        <v>0</v>
+      </c>
+      <c r="C56">
+        <f>Responses!C56</f>
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <f>Responses!D56</f>
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <f>Responses!E56</f>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f>Responses!G56-Responses!F56</f>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f>Responses!H56-Responses!F56</f>
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <f>Responses!I56-Responses!H56</f>
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <f>Responses!M56-Responses!J56</f>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f>Responses!O56-Responses!N56</f>
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <f>Responses!O56-Responses!G56</f>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <f>Responses!A57</f>
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <f>Responses!B57</f>
+        <v>0</v>
+      </c>
+      <c r="C57">
+        <f>Responses!C57</f>
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <f>Responses!D57</f>
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <f>Responses!E57</f>
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <f>Responses!G57-Responses!F57</f>
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <f>Responses!H57-Responses!F57</f>
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <f>Responses!I57-Responses!H57</f>
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <f>Responses!M57-Responses!J57</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <f>Responses!O57-Responses!N57</f>
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <f>Responses!O57-Responses!G57</f>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M57" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>Responses!A58</f>
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <f>Responses!B58</f>
+        <v>0</v>
+      </c>
+      <c r="C58">
+        <f>Responses!C58</f>
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <f>Responses!D58</f>
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <f>Responses!E58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <f>Responses!G58-Responses!F58</f>
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <f>Responses!H58-Responses!F58</f>
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <f>Responses!I58-Responses!H58</f>
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <f>Responses!M58-Responses!J58</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <f>Responses!O58-Responses!N58</f>
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <f>Responses!O58-Responses!G58</f>
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <f>Responses!A59</f>
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <f>Responses!B59</f>
+        <v>0</v>
+      </c>
+      <c r="C59">
+        <f>Responses!C59</f>
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <f>Responses!D59</f>
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <f>Responses!E59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f>Responses!G59-Responses!F59</f>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f>Responses!H59-Responses!F59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>Responses!I59-Responses!H59</f>
+        <v>0</v>
+      </c>
+      <c r="I59">
+        <f>Responses!M59-Responses!J59</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f>Responses!O59-Responses!N59</f>
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <f>Responses!O59-Responses!G59</f>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <f>Responses!A60</f>
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <f>Responses!B60</f>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <f>Responses!C60</f>
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f>Responses!D60</f>
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <f>Responses!E60</f>
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <f>Responses!G60-Responses!F60</f>
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <f>Responses!H60-Responses!F60</f>
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <f>Responses!I60-Responses!H60</f>
+        <v>0</v>
+      </c>
+      <c r="I60">
+        <f>Responses!M60-Responses!J60</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <f>Responses!O60-Responses!N60</f>
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <f>Responses!O60-Responses!G60</f>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M60" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <f>Responses!A61</f>
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <f>Responses!B61</f>
+        <v>0</v>
+      </c>
+      <c r="C61">
+        <f>Responses!C61</f>
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <f>Responses!D61</f>
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <f>Responses!E61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <f>Responses!G61-Responses!F61</f>
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <f>Responses!H61-Responses!F61</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <f>Responses!I61-Responses!H61</f>
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <f>Responses!M61-Responses!J61</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <f>Responses!O61-Responses!N61</f>
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <f>Responses!O61-Responses!G61</f>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <f>Responses!A62</f>
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <f>Responses!B62</f>
+        <v>0</v>
+      </c>
+      <c r="C62">
+        <f>Responses!C62</f>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f>Responses!D62</f>
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <f>Responses!E62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f>Responses!G62-Responses!F62</f>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f>Responses!H62-Responses!F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <f>Responses!I62-Responses!H62</f>
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <f>Responses!M62-Responses!J62</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f>Responses!O62-Responses!N62</f>
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <f>Responses!O62-Responses!G62</f>
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <f>Responses!A63</f>
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <f>Responses!B63</f>
+        <v>0</v>
+      </c>
+      <c r="C63">
+        <f>Responses!C63</f>
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <f>Responses!D63</f>
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <f>Responses!E63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <f>Responses!G63-Responses!F63</f>
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <f>Responses!H63-Responses!F63</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <f>Responses!I63-Responses!H63</f>
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <f>Responses!M63-Responses!J63</f>
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <f>Responses!O63-Responses!N63</f>
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <f>Responses!O63-Responses!G63</f>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <f>Responses!A64</f>
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <f>Responses!B64</f>
+        <v>0</v>
+      </c>
+      <c r="C64">
+        <f>Responses!C64</f>
+        <v>0</v>
+      </c>
+      <c r="D64">
+        <f>Responses!D64</f>
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <f>Responses!E64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <f>Responses!G64-Responses!F64</f>
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <f>Responses!H64-Responses!F64</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <f>Responses!I64-Responses!H64</f>
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <f>Responses!M64-Responses!J64</f>
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <f>Responses!O64-Responses!N64</f>
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <f>Responses!O64-Responses!G64</f>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <f>Responses!A65</f>
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <f>Responses!B65</f>
+        <v>0</v>
+      </c>
+      <c r="C65">
+        <f>Responses!C65</f>
+        <v>0</v>
+      </c>
+      <c r="D65">
+        <f>Responses!D65</f>
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <f>Responses!E65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f>Responses!G65-Responses!F65</f>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f>Responses!H65-Responses!F65</f>
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <f>Responses!I65-Responses!H65</f>
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <f>Responses!M65-Responses!J65</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f>Responses!O65-Responses!N65</f>
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <f>Responses!O65-Responses!G65</f>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <f>Responses!A66</f>
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <f>Responses!B66</f>
+        <v>0</v>
+      </c>
+      <c r="C66">
+        <f>Responses!C66</f>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f>Responses!D66</f>
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <f>Responses!E66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <f>Responses!G66-Responses!F66</f>
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <f>Responses!H66-Responses!F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <f>Responses!I66-Responses!H66</f>
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <f>Responses!M66-Responses!J66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <f>Responses!O66-Responses!N66</f>
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <f>Responses!O66-Responses!G66</f>
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <f>Responses!A67</f>
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <f>Responses!B67</f>
+        <v>0</v>
+      </c>
+      <c r="C67">
+        <f>Responses!C67</f>
+        <v>0</v>
+      </c>
+      <c r="D67">
+        <f>Responses!D67</f>
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <f>Responses!E67</f>
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <f>Responses!G67-Responses!F67</f>
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <f>Responses!H67-Responses!F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <f>Responses!I67-Responses!H67</f>
+        <v>0</v>
+      </c>
+      <c r="I67">
+        <f>Responses!M67-Responses!J67</f>
+        <v>0</v>
+      </c>
+      <c r="J67">
+        <f>Responses!O67-Responses!N67</f>
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <f>Responses!O67-Responses!G67</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M67" t="b">
+        <f t="shared" ref="M67:M100" si="4">SUM(H67:L67)=F67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <f>Responses!A68</f>
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <f>Responses!B68</f>
+        <v>0</v>
+      </c>
+      <c r="C68">
+        <f>Responses!C68</f>
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <f>Responses!D68</f>
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <f>Responses!E68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f>Responses!G68-Responses!F68</f>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f>Responses!H68-Responses!F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <f>Responses!I68-Responses!H68</f>
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <f>Responses!M68-Responses!J68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f>Responses!O68-Responses!N68</f>
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <f>Responses!O68-Responses!G68</f>
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M68" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <f>Responses!A69</f>
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <f>Responses!B69</f>
+        <v>0</v>
+      </c>
+      <c r="C69">
+        <f>Responses!C69</f>
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <f>Responses!D69</f>
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <f>Responses!E69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <f>Responses!G69-Responses!F69</f>
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <f>Responses!H69-Responses!F69</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <f>Responses!I69-Responses!H69</f>
+        <v>0</v>
+      </c>
+      <c r="I69">
+        <f>Responses!M69-Responses!J69</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <f>Responses!O69-Responses!N69</f>
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <f>Responses!O69-Responses!G69</f>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M69" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <f>Responses!A70</f>
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <f>Responses!B70</f>
+        <v>0</v>
+      </c>
+      <c r="C70">
+        <f>Responses!C70</f>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f>Responses!D70</f>
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <f>Responses!E70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <f>Responses!G70-Responses!F70</f>
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <f>Responses!H70-Responses!F70</f>
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <f>Responses!I70-Responses!H70</f>
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <f>Responses!M70-Responses!J70</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <f>Responses!O70-Responses!N70</f>
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <f>Responses!O70-Responses!G70</f>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M70" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <f>Responses!A71</f>
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <f>Responses!B71</f>
+        <v>0</v>
+      </c>
+      <c r="C71">
+        <f>Responses!C71</f>
+        <v>0</v>
+      </c>
+      <c r="D71">
+        <f>Responses!D71</f>
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <f>Responses!E71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f>Responses!G71-Responses!F71</f>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f>Responses!H71-Responses!F71</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <f>Responses!I71-Responses!H71</f>
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <f>Responses!M71-Responses!J71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f>Responses!O71-Responses!N71</f>
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <f>Responses!O71-Responses!G71</f>
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <f t="shared" ref="L71:L100" si="5">(G71-K71)+SUM(H71:J71)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <f>Responses!A72</f>
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <f>Responses!B72</f>
+        <v>0</v>
+      </c>
+      <c r="C72">
+        <f>Responses!C72</f>
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <f>Responses!D72</f>
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <f>Responses!E72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <f>Responses!G72-Responses!F72</f>
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <f>Responses!H72-Responses!F72</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <f>Responses!I72-Responses!H72</f>
+        <v>0</v>
+      </c>
+      <c r="I72">
+        <f>Responses!M72-Responses!J72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <f>Responses!O72-Responses!N72</f>
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <f>Responses!O72-Responses!G72</f>
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M72" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <f>Responses!A73</f>
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <f>Responses!B73</f>
+        <v>0</v>
+      </c>
+      <c r="C73">
+        <f>Responses!C73</f>
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <f>Responses!D73</f>
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <f>Responses!E73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <f>Responses!G73-Responses!F73</f>
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <f>Responses!H73-Responses!F73</f>
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <f>Responses!I73-Responses!H73</f>
+        <v>0</v>
+      </c>
+      <c r="I73">
+        <f>Responses!M73-Responses!J73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <f>Responses!O73-Responses!N73</f>
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <f>Responses!O73-Responses!G73</f>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M73" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <f>Responses!A74</f>
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <f>Responses!B74</f>
+        <v>0</v>
+      </c>
+      <c r="C74">
+        <f>Responses!C74</f>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f>Responses!D74</f>
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <f>Responses!E74</f>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f>Responses!G74-Responses!F74</f>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f>Responses!H74-Responses!F74</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <f>Responses!I74-Responses!H74</f>
+        <v>0</v>
+      </c>
+      <c r="I74">
+        <f>Responses!M74-Responses!J74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f>Responses!O74-Responses!N74</f>
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <f>Responses!O74-Responses!G74</f>
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M74" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <f>Responses!A75</f>
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <f>Responses!B75</f>
+        <v>0</v>
+      </c>
+      <c r="C75">
+        <f>Responses!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>Responses!D75</f>
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <f>Responses!E75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <f>Responses!G75-Responses!F75</f>
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <f>Responses!H75-Responses!F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f>Responses!I75-Responses!H75</f>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f>Responses!M75-Responses!J75</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>Responses!O75-Responses!N75</f>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f>Responses!O75-Responses!G75</f>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M75" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <f>Responses!A76</f>
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <f>Responses!B76</f>
+        <v>0</v>
+      </c>
+      <c r="C76">
+        <f>Responses!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>Responses!D76</f>
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <f>Responses!E76</f>
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <f>Responses!G76-Responses!F76</f>
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <f>Responses!H76-Responses!F76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <f>Responses!I76-Responses!H76</f>
+        <v>0</v>
+      </c>
+      <c r="I76">
+        <f>Responses!M76-Responses!J76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <f>Responses!O76-Responses!N76</f>
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <f>Responses!O76-Responses!G76</f>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M76" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <f>Responses!A77</f>
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <f>Responses!B77</f>
+        <v>0</v>
+      </c>
+      <c r="C77">
+        <f>Responses!C77</f>
+        <v>0</v>
+      </c>
+      <c r="D77">
+        <f>Responses!D77</f>
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <f>Responses!E77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f>Responses!G77-Responses!F77</f>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f>Responses!H77-Responses!F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <f>Responses!I77-Responses!H77</f>
+        <v>0</v>
+      </c>
+      <c r="I77">
+        <f>Responses!M77-Responses!J77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f>Responses!O77-Responses!N77</f>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f>Responses!O77-Responses!G77</f>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M77" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <f>Responses!A78</f>
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <f>Responses!B78</f>
+        <v>0</v>
+      </c>
+      <c r="C78">
+        <f>Responses!C78</f>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f>Responses!D78</f>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f>Responses!E78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f>Responses!G78-Responses!F78</f>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f>Responses!H78-Responses!F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f>Responses!I78-Responses!H78</f>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f>Responses!M78-Responses!J78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f>Responses!O78-Responses!N78</f>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f>Responses!O78-Responses!G78</f>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M78" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <f>Responses!A79</f>
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <f>Responses!B79</f>
+        <v>0</v>
+      </c>
+      <c r="C79">
+        <f>Responses!C79</f>
+        <v>0</v>
+      </c>
+      <c r="D79">
+        <f>Responses!D79</f>
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <f>Responses!E79</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <f>Responses!G79-Responses!F79</f>
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <f>Responses!H79-Responses!F79</f>
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <f>Responses!I79-Responses!H79</f>
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <f>Responses!M79-Responses!J79</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <f>Responses!O79-Responses!N79</f>
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <f>Responses!O79-Responses!G79</f>
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M79" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <f>Responses!A80</f>
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <f>Responses!B80</f>
+        <v>0</v>
+      </c>
+      <c r="C80">
+        <f>Responses!C80</f>
+        <v>0</v>
+      </c>
+      <c r="D80">
+        <f>Responses!D80</f>
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <f>Responses!E80</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f>Responses!G80-Responses!F80</f>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f>Responses!H80-Responses!F80</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <f>Responses!I80-Responses!H80</f>
+        <v>0</v>
+      </c>
+      <c r="I80">
+        <f>Responses!M80-Responses!J80</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f>Responses!O80-Responses!N80</f>
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <f>Responses!O80-Responses!G80</f>
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M80" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <f>Responses!A81</f>
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <f>Responses!B81</f>
+        <v>0</v>
+      </c>
+      <c r="C81">
+        <f>Responses!C81</f>
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <f>Responses!D81</f>
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <f>Responses!E81</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <f>Responses!G81-Responses!F81</f>
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <f>Responses!H81-Responses!F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <f>Responses!I81-Responses!H81</f>
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <f>Responses!M81-Responses!J81</f>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <f>Responses!O81-Responses!N81</f>
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <f>Responses!O81-Responses!G81</f>
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M81" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <f>Responses!A82</f>
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <f>Responses!B82</f>
+        <v>0</v>
+      </c>
+      <c r="C82">
+        <f>Responses!C82</f>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f>Responses!D82</f>
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <f>Responses!E82</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <f>Responses!G82-Responses!F82</f>
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <f>Responses!H82-Responses!F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <f>Responses!I82-Responses!H82</f>
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <f>Responses!M82-Responses!J82</f>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <f>Responses!O82-Responses!N82</f>
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <f>Responses!O82-Responses!G82</f>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M82" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <f>Responses!A83</f>
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <f>Responses!B83</f>
+        <v>0</v>
+      </c>
+      <c r="C83">
+        <f>Responses!C83</f>
+        <v>0</v>
+      </c>
+      <c r="D83">
+        <f>Responses!D83</f>
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <f>Responses!E83</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f>Responses!G83-Responses!F83</f>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f>Responses!H83-Responses!F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <f>Responses!I83-Responses!H83</f>
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>Responses!M83-Responses!J83</f>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f>Responses!O83-Responses!N83</f>
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <f>Responses!O83-Responses!G83</f>
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M83" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <f>Responses!A84</f>
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <f>Responses!B84</f>
+        <v>0</v>
+      </c>
+      <c r="C84">
+        <f>Responses!C84</f>
+        <v>0</v>
+      </c>
+      <c r="D84">
+        <f>Responses!D84</f>
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <f>Responses!E84</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <f>Responses!G84-Responses!F84</f>
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <f>Responses!H84-Responses!F84</f>
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <f>Responses!I84-Responses!H84</f>
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <f>Responses!M84-Responses!J84</f>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <f>Responses!O84-Responses!N84</f>
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <f>Responses!O84-Responses!G84</f>
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M84" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <f>Responses!A85</f>
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <f>Responses!B85</f>
+        <v>0</v>
+      </c>
+      <c r="C85">
+        <f>Responses!C85</f>
+        <v>0</v>
+      </c>
+      <c r="D85">
+        <f>Responses!D85</f>
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <f>Responses!E85</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <f>Responses!G85-Responses!F85</f>
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <f>Responses!H85-Responses!F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <f>Responses!I85-Responses!H85</f>
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <f>Responses!M85-Responses!J85</f>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <f>Responses!O85-Responses!N85</f>
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <f>Responses!O85-Responses!G85</f>
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M85" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <f>Responses!A86</f>
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <f>Responses!B86</f>
+        <v>0</v>
+      </c>
+      <c r="C86">
+        <f>Responses!C86</f>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f>Responses!D86</f>
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <f>Responses!E86</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f>Responses!G86-Responses!F86</f>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f>Responses!H86-Responses!F86</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <f>Responses!I86-Responses!H86</f>
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <f>Responses!M86-Responses!J86</f>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f>Responses!O86-Responses!N86</f>
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <f>Responses!O86-Responses!G86</f>
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M86" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <f>Responses!A87</f>
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <f>Responses!B87</f>
+        <v>0</v>
+      </c>
+      <c r="C87">
+        <f>Responses!C87</f>
+        <v>0</v>
+      </c>
+      <c r="D87">
+        <f>Responses!D87</f>
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <f>Responses!E87</f>
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <f>Responses!G87-Responses!F87</f>
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <f>Responses!H87-Responses!F87</f>
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <f>Responses!I87-Responses!H87</f>
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f>Responses!M87-Responses!J87</f>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <f>Responses!O87-Responses!N87</f>
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <f>Responses!O87-Responses!G87</f>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M87" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <f>Responses!A88</f>
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <f>Responses!B88</f>
+        <v>0</v>
+      </c>
+      <c r="C88">
+        <f>Responses!C88</f>
+        <v>0</v>
+      </c>
+      <c r="D88">
+        <f>Responses!D88</f>
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <f>Responses!E88</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <f>Responses!G88-Responses!F88</f>
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <f>Responses!H88-Responses!F88</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <f>Responses!I88-Responses!H88</f>
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f>Responses!M88-Responses!J88</f>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <f>Responses!O88-Responses!N88</f>
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <f>Responses!O88-Responses!G88</f>
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M88" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <f>Responses!A89</f>
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <f>Responses!B89</f>
+        <v>0</v>
+      </c>
+      <c r="C89">
+        <f>Responses!C89</f>
+        <v>0</v>
+      </c>
+      <c r="D89">
+        <f>Responses!D89</f>
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <f>Responses!E89</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f>Responses!G89-Responses!F89</f>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f>Responses!H89-Responses!F89</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <f>Responses!I89-Responses!H89</f>
+        <v>0</v>
+      </c>
+      <c r="I89">
+        <f>Responses!M89-Responses!J89</f>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f>Responses!O89-Responses!N89</f>
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <f>Responses!O89-Responses!G89</f>
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M89" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <f>Responses!A90</f>
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <f>Responses!B90</f>
+        <v>0</v>
+      </c>
+      <c r="C90">
+        <f>Responses!C90</f>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f>Responses!D90</f>
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <f>Responses!E90</f>
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <f>Responses!G90-Responses!F90</f>
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <f>Responses!H90-Responses!F90</f>
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <f>Responses!I90-Responses!H90</f>
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f>Responses!M90-Responses!J90</f>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <f>Responses!O90-Responses!N90</f>
+        <v>0</v>
+      </c>
+      <c r="K90">
+        <f>Responses!O90-Responses!G90</f>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M90" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <f>Responses!A91</f>
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <f>Responses!B91</f>
+        <v>0</v>
+      </c>
+      <c r="C91">
+        <f>Responses!C91</f>
+        <v>0</v>
+      </c>
+      <c r="D91">
+        <f>Responses!D91</f>
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <f>Responses!E91</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <f>Responses!G91-Responses!F91</f>
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <f>Responses!H91-Responses!F91</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <f>Responses!I91-Responses!H91</f>
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <f>Responses!M91-Responses!J91</f>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <f>Responses!O91-Responses!N91</f>
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <f>Responses!O91-Responses!G91</f>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M91" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <f>Responses!A92</f>
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <f>Responses!B92</f>
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <f>Responses!C92</f>
+        <v>0</v>
+      </c>
+      <c r="D92">
+        <f>Responses!D92</f>
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <f>Responses!E92</f>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f>Responses!G92-Responses!F92</f>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f>Responses!H92-Responses!F92</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <f>Responses!I92-Responses!H92</f>
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <f>Responses!M92-Responses!J92</f>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f>Responses!O92-Responses!N92</f>
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <f>Responses!O92-Responses!G92</f>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M92" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <f>Responses!A93</f>
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <f>Responses!B93</f>
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <f>Responses!C93</f>
+        <v>0</v>
+      </c>
+      <c r="D93">
+        <f>Responses!D93</f>
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <f>Responses!E93</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <f>Responses!G93-Responses!F93</f>
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <f>Responses!H93-Responses!F93</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <f>Responses!I93-Responses!H93</f>
+        <v>0</v>
+      </c>
+      <c r="I93">
+        <f>Responses!M93-Responses!J93</f>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <f>Responses!O93-Responses!N93</f>
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <f>Responses!O93-Responses!G93</f>
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M93" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <f>Responses!A94</f>
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <f>Responses!B94</f>
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <f>Responses!C94</f>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f>Responses!D94</f>
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <f>Responses!E94</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <f>Responses!G94-Responses!F94</f>
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <f>Responses!H94-Responses!F94</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <f>Responses!I94-Responses!H94</f>
+        <v>0</v>
+      </c>
+      <c r="I94">
+        <f>Responses!M94-Responses!J94</f>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <f>Responses!O94-Responses!N94</f>
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <f>Responses!O94-Responses!G94</f>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M94" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <f>Responses!A95</f>
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <f>Responses!B95</f>
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <f>Responses!C95</f>
+        <v>0</v>
+      </c>
+      <c r="D95">
+        <f>Responses!D95</f>
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <f>Responses!E95</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f>Responses!G95-Responses!F95</f>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f>Responses!H95-Responses!F95</f>
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <f>Responses!I95-Responses!H95</f>
+        <v>0</v>
+      </c>
+      <c r="I95">
+        <f>Responses!M95-Responses!J95</f>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f>Responses!O95-Responses!N95</f>
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <f>Responses!O95-Responses!G95</f>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M95" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <f>Responses!A96</f>
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <f>Responses!B96</f>
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <f>Responses!C96</f>
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <f>Responses!D96</f>
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <f>Responses!E96</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <f>Responses!G96-Responses!F96</f>
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <f>Responses!H96-Responses!F96</f>
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <f>Responses!I96-Responses!H96</f>
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <f>Responses!M96-Responses!J96</f>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <f>Responses!O96-Responses!N96</f>
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <f>Responses!O96-Responses!G96</f>
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M96" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <f>Responses!A97</f>
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <f>Responses!B97</f>
+        <v>0</v>
+      </c>
+      <c r="C97">
+        <f>Responses!C97</f>
+        <v>0</v>
+      </c>
+      <c r="D97">
+        <f>Responses!D97</f>
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <f>Responses!E97</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <f>Responses!G97-Responses!F97</f>
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <f>Responses!H97-Responses!F97</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <f>Responses!I97-Responses!H97</f>
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <f>Responses!M97-Responses!J97</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <f>Responses!O97-Responses!N97</f>
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <f>Responses!O97-Responses!G97</f>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M97" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <f>Responses!A98</f>
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <f>Responses!B98</f>
+        <v>0</v>
+      </c>
+      <c r="C98">
+        <f>Responses!C98</f>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f>Responses!D98</f>
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <f>Responses!E98</f>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f>Responses!G98-Responses!F98</f>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f>Responses!H98-Responses!F98</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <f>Responses!I98-Responses!H98</f>
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <f>Responses!M98-Responses!J98</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f>Responses!O98-Responses!N98</f>
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <f>Responses!O98-Responses!G98</f>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M98" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <f>Responses!A99</f>
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <f>Responses!B99</f>
+        <v>0</v>
+      </c>
+      <c r="C99">
+        <f>Responses!C99</f>
+        <v>0</v>
+      </c>
+      <c r="D99">
+        <f>Responses!D99</f>
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <f>Responses!E99</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <f>Responses!G99-Responses!F99</f>
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <f>Responses!H99-Responses!F99</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <f>Responses!I99-Responses!H99</f>
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <f>Responses!M99-Responses!J99</f>
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <f>Responses!O99-Responses!N99</f>
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <f>Responses!O99-Responses!G99</f>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M99" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <f>Responses!A100</f>
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <f>Responses!B100</f>
+        <v>0</v>
+      </c>
+      <c r="C100">
+        <f>Responses!C100</f>
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <f>Responses!D100</f>
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <f>Responses!E100</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <f>Responses!G100-Responses!F100</f>
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <f>Responses!H100-Responses!F100</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <f>Responses!I100-Responses!H100</f>
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <f>Responses!M100-Responses!J100</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <f>Responses!O100-Responses!N100</f>
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <f>Responses!O100-Responses!G100</f>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="M100" t="b">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
